--- a/data/case1/13/P1_14.xlsx
+++ b/data/case1/13/P1_14.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.00044673546609885761</v>
+        <v>0.020878416066977934</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999998270234869</v>
+        <v>-0.0099999995783441875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999998301006912</v>
+        <v>-0.0089999995842138247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399555403401777</v>
+        <v>0.28399150439170739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998373498897</v>
+        <v>-0.005999999599361594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999998330013682</v>
+        <v>-0.0059999995888198043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999798480772</v>
+        <v>-0.01999999951572029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999797084556</v>
+        <v>-0.019999999512559263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998298447821</v>
+        <v>-0.0059999995815269713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998288020606</v>
+        <v>-0.0059999995792097138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999998324115609</v>
+        <v>0.031593149921050667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999998286905942</v>
+        <v>-0.0059999995774031589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.031685637424207158</v>
+        <v>-0.0059999995707045173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.01199999981278399</v>
+        <v>-0.011999999538000239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998267441512</v>
+        <v>-0.0059999995674866469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.00599999982612065</v>
+        <v>-0.0059999995662223249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998253319475</v>
+        <v>-0.0059999995645290127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998178305063</v>
+        <v>-0.0089999995487390905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999998291778738</v>
+        <v>-0.0089999995831679946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999827645766</v>
+        <v>-0.0089999995796929966</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999998273935233</v>
+        <v>-0.0089999995792213738</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998271919068</v>
+        <v>-0.0089999995788776488</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998284993055</v>
+        <v>-0.02430465675365312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999745497618</v>
+        <v>-0.041999999403531163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04199999974407298</v>
+        <v>-0.04199999940049004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0058285445684767012</v>
+        <v>-0.0059999995881447887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998322153303</v>
+        <v>-0.020685454693705196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998305579894</v>
+        <v>-0.0059999995847048737</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.032693262887333319</v>
+        <v>-0.011999999552465113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.021882254543915902</v>
+        <v>-0.019999999511093769</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999806855513</v>
+        <v>-0.014999999537737452</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999792216784</v>
+        <v>0.032678656393295924</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.01493431932596323</v>
+        <v>-0.0059999995845165799</v>
       </c>
     </row>
   </sheetData>
